--- a/ad_viz_plotval_data.xlsx
+++ b/ad_viz_plotval_data.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/420df31f91ca9e61/Documents/ORU/Visualizations/Quarto/Week3/Midterm Dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/420df31f91ca9e61/Documents/ORU/Visualizations/Quarto/Week 5/Midterm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{5350897F-C240-4739-B4A3-9D49288EBF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5CC38BA-789E-4610-8867-3DB63F9DFED5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F78A24-0864-48B2-AA58-01A234D85BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D6A0D6DD-1183-4D1D-A047-E1B4CD41DD87}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6115D4A9-33E7-4125-A7E8-086066E35620}"/>
   </bookViews>
   <sheets>
     <sheet name="ad_viz_plotval_data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ad_viz_plotval_data!$A$1:$U$710</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -970,11 +973,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D05F554-51B2-4808-BE8D-8EA1EA39D2D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F42ADF-DD0D-4B2F-8D00-A14E0FB963DF}">
   <dimension ref="A1:U710"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U1048576"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47135,6 +47138,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U710" xr:uid="{54F42ADF-DD0D-4B2F-8D00-A14E0FB963DF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>